--- a/MyCode/time_analysis.xlsx
+++ b/MyCode/time_analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58116D14-BB85-4E9D-A4C3-DAE3DFFB6D6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CADE9CE-5B1C-45B2-9DAA-6D4CF5293488}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="840" windowWidth="14400" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>100 000 messages</t>
   </si>
@@ -77,6 +82,15 @@
   </si>
   <si>
     <t>normalize</t>
+  </si>
+  <si>
+    <t>150k</t>
+  </si>
+  <si>
+    <t>130k</t>
+  </si>
+  <si>
+    <t>2 ** 17</t>
   </si>
 </sst>
 </file>
@@ -84,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,7 +132,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,6 +459,12 @@
       <c r="D2">
         <v>62.19</v>
       </c>
+      <c r="E2">
+        <v>116.24</v>
+      </c>
+      <c r="F2">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -459,6 +479,12 @@
       <c r="D3">
         <v>64.12</v>
       </c>
+      <c r="E3">
+        <v>117.47</v>
+      </c>
+      <c r="F3">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -473,6 +499,12 @@
       <c r="D4">
         <v>63.04</v>
       </c>
+      <c r="E4">
+        <v>112.8</v>
+      </c>
+      <c r="F4">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -487,6 +519,12 @@
       <c r="D5">
         <v>65.48</v>
       </c>
+      <c r="E5">
+        <v>112.73</v>
+      </c>
+      <c r="F5">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -501,6 +539,12 @@
       <c r="D6">
         <v>65.349999999999994</v>
       </c>
+      <c r="E6">
+        <v>107.68</v>
+      </c>
+      <c r="F6">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -512,6 +556,12 @@
       <c r="D7">
         <v>64.44</v>
       </c>
+      <c r="E7">
+        <v>112.82</v>
+      </c>
+      <c r="F7">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
@@ -523,6 +573,12 @@
       <c r="D8">
         <v>65.33</v>
       </c>
+      <c r="E8">
+        <v>107.1</v>
+      </c>
+      <c r="F8">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -534,6 +590,12 @@
       <c r="D9">
         <v>65.459999999999994</v>
       </c>
+      <c r="E9">
+        <v>107.09</v>
+      </c>
+      <c r="F9">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -545,6 +607,12 @@
       <c r="D10">
         <v>61.7</v>
       </c>
+      <c r="E10">
+        <v>106.95</v>
+      </c>
+      <c r="F10">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -556,6 +624,12 @@
       <c r="D11">
         <v>61.27</v>
       </c>
+      <c r="E11">
+        <v>106.82</v>
+      </c>
+      <c r="F11">
+        <v>252.06</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -566,141 +640,221 @@
         <v>4.1884999999999994</v>
       </c>
       <c r="C13">
-        <f>C2/20</f>
+        <f t="shared" ref="C13:F13" si="0">C2/20</f>
         <v>3.0234999999999999</v>
       </c>
       <c r="D13">
-        <f>D2/20</f>
+        <f t="shared" si="0"/>
         <v>3.1094999999999997</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.8119999999999994</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>12.603</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14">
-        <f t="shared" ref="B14:D22" si="0">B3/20</f>
+        <f t="shared" ref="B14:F22" si="1">B3/20</f>
         <v>4.1310000000000002</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2145000000000001</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2060000000000004</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>5.8734999999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>12.603</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1964999999999999</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1520000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>5.64</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>12.603</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3140000000000001</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0449999999999999</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.274</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>5.6364999999999998</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>12.603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1895000000000007</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1429999999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2674999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>5.3840000000000003</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>12.603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1989999999999998</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9195000000000002</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.222</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>5.641</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>12.603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0365000000000002</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0300000000000002</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2664999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>5.3549999999999995</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="2">F8/20</f>
+        <v>12.603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1265000000000001</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9249999999999998</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2729999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5.3544999999999998</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="3">F9/20</f>
+        <v>12.603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1059999999999999</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1545000000000001</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.085</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>5.3475000000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="4">F10/20</f>
+        <v>12.603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1479999999999997</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1589999999999998</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0635000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>5.3409999999999993</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="5">F11/20</f>
+        <v>12.603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -709,7 +863,7 @@
         <v>4.1740000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -718,15 +872,23 @@
         <v>0.99997604216578828</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:D24" si="1">AVERAGE(C13:C22)/$B$23</f>
+        <f t="shared" ref="C24:F25" si="6">AVERAGE(C13:C22)/$B$23</f>
         <v>0.73815285098227112</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.76471011020603741</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
+        <f t="shared" si="6"/>
+        <v>1.326904647819837</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="6"/>
+        <v>3.0194058457115469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -735,15 +897,23 @@
         <v>2.0338760463877292E-2</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:D25" si="2">STDEV(C13:C22)/$B$23</f>
+        <f t="shared" ref="C25:F25" si="7">STDEV(C13:C22)/$B$23</f>
         <v>2.576803702887432E-2</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.9884665636226029E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="2">
+        <f t="shared" si="7"/>
+        <v>4.9508059131410403E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
+        <v>4.4859715298855788E-16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -753,8 +923,14 @@
       <c r="D27">
         <v>4352</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -764,8 +940,14 @@
       <c r="D28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -773,6 +955,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.03</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
     </row>
